--- a/Circuit-Satisfiability-Problem/Inleveropgave/elapsed_time_sheet.xlsx
+++ b/Circuit-Satisfiability-Problem/Inleveropgave/elapsed_time_sheet.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wolfsinem/High-Performanced-Programming/Circuit-Satisfiability-Problem/Inleveropgave/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43ACDFCD-883A-2E48-B215-567E0EBDD30D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F563C9A-8415-A141-858C-065995A48251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{A6C47ED2-CEC8-3045-B026-54176501EB8B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A6C47ED2-CEC8-3045-B026-54176501EB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2346,6 +2346,613 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>elapsed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> time of processes line chart </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time in seconds</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-3641-9E4D-A055-F83BC9E1D174}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-3641-9E4D-A055-F83BC9E1D174}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-3641-9E4D-A055-F83BC9E1D174}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>259.30186900000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>159.97562099999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144.60345899999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129.295907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3641-9E4D-A055-F83BC9E1D174}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1097609312"/>
+        <c:axId val="1097610944"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1097609312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>amount of processors [1,2,4,8]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1097610944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1097610944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>time in seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1097609312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2503,6 +3110,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4535,6 +5182,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4695,6 +5858,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>724581</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>34470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>193902</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>124277</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0FF361-4068-914D-B4F6-3FF6175B025D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5002,8 +6201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1251E2C3-A4DF-D349-A1B5-0D5E52453FDC}">
   <dimension ref="B1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="112" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="136" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Circuit-Satisfiability-Problem/Inleveropgave/elapsed_time_sheet.xlsx
+++ b/Circuit-Satisfiability-Problem/Inleveropgave/elapsed_time_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wolfsinem/High-Performanced-Programming/Circuit-Satisfiability-Problem/Inleveropgave/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F563C9A-8415-A141-858C-065995A48251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EE9DE8-317F-AF4D-894C-8B2E909CA921}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A6C47ED2-CEC8-3045-B026-54176501EB8B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{A6C47ED2-CEC8-3045-B026-54176501EB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -713,9 +713,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>1</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -770,9 +767,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>2</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -827,9 +821,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>4</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3"/>
@@ -884,9 +875,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:v>8</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4"/>
@@ -935,6 +923,60 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-3D7E-5A40-918A-0AB856660608}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>processes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>time in seconds</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>solutions found</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132.68</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-450B-484D-9126-A747669AB4CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1425,10 +1467,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1440,16 +1482,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>259.30186900000001</c:v>
                 </c:pt>
@@ -1461,6 +1506,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>129.295907</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2011,10 +2059,10 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2026,16 +2074,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>259.30186900000001</c:v>
                 </c:pt>
@@ -2047,6 +2098,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>129.295907</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2513,6 +2567,22 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-D5A4-E84A-A304-D3CFD347EEF2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2585,10 +2655,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2600,16 +2670,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>259.30186900000001</c:v>
                 </c:pt>
@@ -2621,6 +2694,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>129.295907</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5723,14 +5799,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>14131</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>49299</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>58637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>333026</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>71070</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80408</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6199,10 +6275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1251E2C3-A4DF-D349-A1B5-0D5E52453FDC}">
-  <dimension ref="B1:D5"/>
+  <dimension ref="B1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="136" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="166" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6265,6 +6341,17 @@
         <v>81</v>
       </c>
     </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>132.68</v>
+      </c>
+      <c r="D6">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
